--- a/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
@@ -14,47 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
   <si>
     <t>10.0.10.101</t>
   </si>
   <si>
-    <t>Mokattam Ant. 2</t>
-  </si>
-  <si>
-    <t>Mokattam Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.102</t>
   </si>
   <si>
-    <t>M1 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.104</t>
   </si>
   <si>
-    <t>M1 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.106</t>
   </si>
   <si>
     <t>10.0.10.103</t>
   </si>
   <si>
-    <t>M1 Ant. 3</t>
-  </si>
-  <si>
-    <t>M1 Ant. 4</t>
-  </si>
-  <si>
-    <t>10.0.10.108</t>
-  </si>
-  <si>
-    <t>M1 Ant. 5</t>
-  </si>
-  <si>
     <t>10.0.10.110</t>
   </si>
   <si>
@@ -73,18 +49,9 @@
     <t>Cairo</t>
   </si>
   <si>
-    <t>M2 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.111</t>
   </si>
   <si>
-    <t>M2 Ant. 2</t>
-  </si>
-  <si>
-    <t>M2 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.112</t>
   </si>
   <si>
@@ -97,21 +64,12 @@
     <t>10.0.10.113</t>
   </si>
   <si>
-    <t>M3 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.115</t>
   </si>
   <si>
-    <t>M3 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.116</t>
   </si>
   <si>
-    <t>M3 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.118</t>
   </si>
   <si>
@@ -121,39 +79,21 @@
     <t>10.0.10.117</t>
   </si>
   <si>
-    <t>Vodafone 4253 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.119</t>
   </si>
   <si>
-    <t>Vodafone 4253 Ant. 2</t>
-  </si>
-  <si>
-    <t>Vodafone 4253 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.120</t>
   </si>
   <si>
     <t>10.0.10.140</t>
   </si>
   <si>
-    <t>Vodafone 4200 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.141</t>
   </si>
   <si>
-    <t>Vodafone 4200 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.142</t>
   </si>
   <si>
-    <t>Vodafone 4200 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.137</t>
   </si>
   <si>
@@ -169,27 +109,12 @@
     <t>10.0.10.143</t>
   </si>
   <si>
-    <t>Vodafone 4254 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.152</t>
   </si>
   <si>
-    <t>Vodafone 4254 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.122</t>
   </si>
   <si>
-    <t>M6 Ant. 1</t>
-  </si>
-  <si>
-    <t>M6 Ant. 2</t>
-  </si>
-  <si>
-    <t>M6 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.123</t>
   </si>
   <si>
@@ -205,39 +130,18 @@
     <t>10.0.10.127</t>
   </si>
   <si>
-    <t>M11 Ant. 1</t>
-  </si>
-  <si>
     <t>10.0.10.129</t>
   </si>
   <si>
-    <t>M11 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.130</t>
   </si>
   <si>
-    <t>M12 Ant. 1</t>
-  </si>
-  <si>
-    <t>M12 Ant. 2</t>
-  </si>
-  <si>
     <t>10.0.10.131</t>
   </si>
   <si>
     <t>10.0.10.132</t>
   </si>
   <si>
-    <t>Sokhna Ant. 1</t>
-  </si>
-  <si>
-    <t>Sokhna Ant. 2</t>
-  </si>
-  <si>
-    <t>Sokhna Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.133</t>
   </si>
   <si>
@@ -247,15 +151,6 @@
     <t>10.10.10.51</t>
   </si>
   <si>
-    <t>Vodafone 4256 Ant. 1</t>
-  </si>
-  <si>
-    <t>Vodafone 4256 Ant. 2</t>
-  </si>
-  <si>
-    <t>Vodafone 4256 Ant. 3</t>
-  </si>
-  <si>
     <t>10.0.10.135</t>
   </si>
   <si>
@@ -275,14 +170,169 @@
   </si>
   <si>
     <t>Al Seneya</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Place Type</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Node Type</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>Next Node</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>10.0.10.100</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Cairo - Sokhna</t>
+  </si>
+  <si>
+    <t>Mokattam</t>
+  </si>
+  <si>
+    <t>Mobile Site</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>192.168.1.160</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>192.168.1.108</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Collecting Port</t>
+  </si>
+  <si>
+    <t>192.168.1.10</t>
+  </si>
+  <si>
+    <t>192.168.1.193</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>192.168.1.190</t>
+  </si>
+  <si>
+    <t>Vodafone 4253</t>
+  </si>
+  <si>
+    <t>192.168.1.162</t>
+  </si>
+  <si>
+    <t>192.168.1.184</t>
+  </si>
+  <si>
+    <t>Vodafone 4254</t>
+  </si>
+  <si>
+    <t>Vodafone 4200</t>
+  </si>
+  <si>
+    <t>192.168.1.163</t>
+  </si>
+  <si>
+    <t>192.168.1.170</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>192.168.1.164</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>192.168.1.166</t>
+  </si>
+  <si>
+    <t>192.168.1.185</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>192.168.1.167</t>
+  </si>
+  <si>
+    <t>Sokhna</t>
+  </si>
+  <si>
+    <t>192.168.1.168</t>
+  </si>
+  <si>
+    <t>Vodafone 4256</t>
+  </si>
+  <si>
+    <t>Al Galalh</t>
+  </si>
+  <si>
+    <t>10.10.10.22</t>
+  </si>
+  <si>
+    <t>172.16.254.1</t>
+  </si>
+  <si>
+    <t>192.168.1.169</t>
+  </si>
+  <si>
+    <t>192.168.186</t>
+  </si>
+  <si>
+    <t>192.168.1.187</t>
+  </si>
+  <si>
+    <t>Previous IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -310,8 +360,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,371 +673,1543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" t="s">
+        <v>51</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
+      <c r="E66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
@@ -310,13 +310,13 @@
     <t>192.168.1.169</t>
   </si>
   <si>
-    <t>192.168.186</t>
-  </si>
-  <si>
     <t>192.168.1.187</t>
   </si>
   <si>
     <t>Previous IP</t>
+  </si>
+  <si>
+    <t>192.168.1.186</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +710,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>66</v>
@@ -2193,7 +2193,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>66</v>

--- a/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="102">
   <si>
     <t>10.0.10.101</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>192.168.1.186</t>
+  </si>
+  <si>
+    <t>10.0.10.177</t>
   </si>
 </sst>
 </file>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2173,7 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>60</v>

--- a/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
+++ b/WatanyaPingTester/bin/Debug/data/sokhna_scheme.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="102">
   <si>
     <t>10.0.10.101</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Road</t>
   </si>
   <si>
-    <t>Next Node</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -320,6 +317,9 @@
   </si>
   <si>
     <t>10.0.10.177</t>
+  </si>
+  <si>
+    <t>Previous Node Index</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,76 +710,76 @@
         <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>-1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>0</v>
@@ -787,22 +787,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>1</v>
@@ -810,22 +810,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -833,22 +833,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>4</v>
@@ -856,22 +856,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -879,22 +879,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -902,22 +902,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -928,22 +928,22 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,19 +951,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
       </c>
       <c r="G12" t="s">
         <v>2</v>
@@ -974,19 +974,19 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -997,19 +997,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -1020,19 +1020,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F15" s="3">
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>9</v>
@@ -1040,22 +1040,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1063,21 +1063,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3">
         <v>14</v>
       </c>
       <c r="G17" t="s">
@@ -1086,22 +1086,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F18" s="3">
+        <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -1109,22 +1109,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="F19" s="3">
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -1135,19 +1135,19 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
+      </c>
+      <c r="F20" s="3">
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -1158,19 +1158,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="3">
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
@@ -1178,22 +1178,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="F22" s="3">
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1201,22 +1201,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -1224,22 +1224,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
@@ -1247,22 +1247,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1273,19 +1273,19 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F26" s="3">
+        <v>21</v>
       </c>
       <c r="G26" t="s">
         <v>17</v>
@@ -1296,19 +1296,19 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F27" s="3">
+        <v>24</v>
       </c>
       <c r="G27" t="s">
         <v>20</v>
@@ -1316,22 +1316,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="F28" s="3">
+        <v>22</v>
       </c>
       <c r="G28" t="s">
         <v>18</v>
@@ -1339,22 +1339,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F29" s="3">
+        <v>26</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -1362,22 +1362,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="F30" s="3">
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
@@ -1385,22 +1385,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F31" s="3">
+        <v>26</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>
@@ -1408,22 +1408,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>81</v>
+        <v>60</v>
+      </c>
+      <c r="F32" s="3">
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>23</v>
@@ -1431,22 +1431,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="F33" s="3">
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>24</v>
@@ -1454,22 +1454,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>24</v>
@@ -1477,22 +1477,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F35" s="3">
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>24</v>
@@ -1503,19 +1503,19 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F36" s="3">
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
@@ -1526,19 +1526,19 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F37" s="3">
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>26</v>
@@ -1546,22 +1546,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F38" s="3">
+        <v>27</v>
       </c>
       <c r="G38" t="s">
         <v>22</v>
@@ -1569,22 +1569,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="F39" s="3">
+        <v>36</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -1592,22 +1592,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F40" s="3">
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>31</v>
@@ -1615,22 +1615,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
+      </c>
+      <c r="F41" s="3">
+        <v>37</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -1638,22 +1638,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="F42" s="3">
+        <v>39</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
@@ -1661,22 +1661,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="F43" s="3">
+        <v>39</v>
       </c>
       <c r="G43" t="s">
         <v>33</v>
@@ -1684,22 +1684,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F44" s="3">
+        <v>39</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -1710,19 +1710,19 @@
         <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>36</v>
+        <v>60</v>
+      </c>
+      <c r="F45" s="3">
+        <v>40</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -1733,19 +1733,19 @@
         <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F46" s="3">
+        <v>43</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
@@ -1753,22 +1753,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="F47" s="3">
+        <v>41</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -1776,22 +1776,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -1799,22 +1799,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45</v>
       </c>
       <c r="G49" t="s">
         <v>38</v>
@@ -1822,22 +1822,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="F50" s="3">
+        <v>46</v>
       </c>
       <c r="G50" t="s">
         <v>39</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="F51" s="3">
+        <v>48</v>
       </c>
       <c r="G51" t="s">
         <v>40</v>
@@ -1868,22 +1868,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F52" s="3">
+        <v>48</v>
       </c>
       <c r="G52" t="s">
         <v>40</v>
@@ -1891,22 +1891,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="F53" s="3">
+        <v>49</v>
       </c>
       <c r="G53" t="s">
         <v>41</v>
@@ -1914,22 +1914,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="F54" s="3">
+        <v>51</v>
       </c>
       <c r="G54" t="s">
         <v>42</v>
@@ -1937,22 +1937,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
         <v>44</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="F55" s="3">
+        <v>51</v>
       </c>
       <c r="G55" t="s">
         <v>42</v>
@@ -1960,22 +1960,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F56" s="3">
+        <v>51</v>
       </c>
       <c r="G56" t="s">
         <v>42</v>
@@ -1983,22 +1983,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
         <v>94</v>
       </c>
-      <c r="B57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="F57" s="3">
+        <v>53</v>
       </c>
       <c r="G57" t="s">
         <v>44</v>
@@ -2006,45 +2006,45 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="3">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
         <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" t="s">
-        <v>96</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F59" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="F59" s="3">
+        <v>52</v>
       </c>
       <c r="G59" t="s">
         <v>43</v>
@@ -2052,22 +2052,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="F60" s="3">
+        <v>57</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -2075,22 +2075,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F61" s="3">
+        <v>57</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -2098,22 +2098,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F62" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F62" s="3">
+        <v>57</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -2124,19 +2124,19 @@
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F63" s="3">
+        <v>59</v>
       </c>
       <c r="G63" t="s">
         <v>47</v>
@@ -2147,19 +2147,19 @@
         <v>48</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="3">
         <v>61</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G64" t="s">
         <v>49</v>
@@ -2170,19 +2170,19 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="F65" s="3">
+        <v>58</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -2193,19 +2193,19 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="F66" s="3">
+        <v>63</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
